--- a/Pontagler.xlsx
+++ b/Pontagler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Saurabh\Project\pontagler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D76844-2B7D-4BA0-A71D-31092A3180BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839F3B6-8673-480E-95A1-CF58EE461067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8AB3C3F-122E-497A-9914-E8823559A3FF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <sheet name="artist_request" sheetId="17" r:id="rId17"/>
     <sheet name="artist_request_media" sheetId="18" r:id="rId18"/>
     <sheet name="artist_instruments" sheetId="22" r:id="rId19"/>
-    <sheet name="artist_requirements" sheetId="36" r:id="rId20"/>
+    <sheet name="artist_requirement" sheetId="36" r:id="rId20"/>
     <sheet name="sys_media_type" sheetId="19" r:id="rId21"/>
     <sheet name="sys_performance_type" sheetId="20" r:id="rId22"/>
     <sheet name="sys_request_type" sheetId="21" r:id="rId23"/>
@@ -49,6 +49,8 @@
     <sheet name="sys_location_types" sheetId="33" r:id="rId34"/>
     <sheet name="user_profile" sheetId="34" r:id="rId35"/>
     <sheet name="user_roles" sheetId="35" r:id="rId36"/>
+    <sheet name="visitor_newsletter" sheetId="37" r:id="rId37"/>
+    <sheet name="visitor_message" sheetId="38" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="590">
   <si>
     <t>Table Name</t>
   </si>
@@ -521,6 +523,9 @@
   </si>
   <si>
     <t>Fact Table</t>
+  </si>
+  <si>
+    <t>System Table</t>
   </si>
   <si>
     <t>Click</t>
@@ -1781,13 +1786,73 @@
   <si>
     <t>Note: user_profile table is the reference table but also a fact table which mean the some information are duplicate from artist and  hosts because at the time of login we dont allow user to access data from the main tables. 
 The credentaials are stored in the system table of supabase it is their internal tables.</t>
+  </si>
+  <si>
+    <t>Visitors</t>
+  </si>
+  <si>
+    <t>visitor_newsletter</t>
+  </si>
+  <si>
+    <t>Newsletter subscriber</t>
+  </si>
+  <si>
+    <t>visitor_message</t>
+  </si>
+  <si>
+    <t>Message sent by visitor on website</t>
+  </si>
+  <si>
+    <t>Are those table whose values are used by system and not frequently changed</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY`, `DEFAULT SERIAL</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Name of Visitor</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Micheal Thomas</t>
+  </si>
+  <si>
+    <t>micheal@gmail.com</t>
+  </si>
+  <si>
+    <t>select *from visitor_newsletter;</t>
+  </si>
+  <si>
+    <t>Table that store visitor newletter susbcribers</t>
+  </si>
+  <si>
+    <t>select *from visitor_message;</t>
+  </si>
+  <si>
+    <t>Table that store visitor messages</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Visitor message</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>I want to donate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1890,8 +1955,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1945,8 +2026,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2004,12 +2091,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2072,6 +2196,18 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2408,13 +2544,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4549F0-6F47-4B8B-AF45-038DCE249FFA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J33"/>
+  <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="48.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
@@ -2422,24 +2560,32 @@
     <col min="9" max="9" width="44.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
-        <v>149</v>
+      <c r="B2" s="36" t="s">
+        <v>558</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D2" s="18"/>
       <c r="G2" s="34" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>153</v>
+      <c r="B3" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>575</v>
       </c>
       <c r="D3" s="18"/>
     </row>
@@ -2451,7 +2597,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -2468,7 +2614,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>0</v>
@@ -2480,104 +2626,104 @@
         <v>55</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>526</v>
+      <c r="D7" s="13" t="s">
+        <v>527</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>149</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>149</v>
+      <c r="C8" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>557</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>149</v>
+      <c r="C9" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>149</v>
+      <c r="C10" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>149</v>
+      <c r="C11" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -2587,14 +2733,14 @@
       <c r="B12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>149</v>
+      <c r="C12" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>0</v>
@@ -2604,159 +2750,159 @@
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>557</v>
+      <c r="C13" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>149</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>557</v>
+      <c r="C14" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>149</v>
+        <v>386</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>557</v>
+      <c r="C15" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>149</v>
+        <v>387</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>557</v>
+      <c r="C16" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>149</v>
+        <v>388</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>149</v>
+        <v>385</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G18" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="H18" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>556</v>
-      </c>
       <c r="J18" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="G19" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>557</v>
+        <v>391</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -2766,66 +2912,68 @@
       <c r="C20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" s="16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>557</v>
+        <v>392</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>536</v>
+      <c r="D21" s="13" t="s">
+        <v>537</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>149</v>
+        <v>157</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -2833,109 +2981,111 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>149</v>
+        <v>158</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="16"/>
+      <c r="I24" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="J24" s="16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H25" s="32" t="s">
         <v>149</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>149</v>
+        <v>160</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>149</v>
+        <v>161</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>149</v>
+        <v>318</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
@@ -2943,16 +3093,16 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>149</v>
+        <v>524</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -2961,16 +3111,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>557</v>
+        <v>246</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -2979,16 +3129,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>557</v>
+        <v>302</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -2997,40 +3147,91 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>557</v>
+        <v>313</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>557</v>
+        <v>324</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G34" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G35" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G37" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G28:J32"/>
+    <mergeCell ref="G34:J34"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="G5:J5"/>
@@ -3073,7 +3274,9 @@
     <hyperlink ref="J20" location="sys_location_types!A1" display="Click" xr:uid="{C8B61492-8680-41AD-9A06-484B71CAF469}"/>
     <hyperlink ref="J25" location="user_profile!A1" display="Click" xr:uid="{ED4CE1BC-CC95-4D02-BE26-A2F0339E06A8}"/>
     <hyperlink ref="J26" location="user_roles!A1" display="Click" xr:uid="{46C4126D-C0EE-426F-992E-B48EEF660D20}"/>
-    <hyperlink ref="E29" location="artist_miscellaneous!A1" display="Click" xr:uid="{A2E94BA9-61F1-4E72-A73C-2E83E34D8FF1}"/>
+    <hyperlink ref="E29" location="artist_requirement!A1" display="Click" xr:uid="{A2E94BA9-61F1-4E72-A73C-2E83E34D8FF1}"/>
+    <hyperlink ref="J36" location="visitor_newsletter!A1" display="Click" xr:uid="{F69507CF-4920-41D6-971B-365E4E1347C6}"/>
+    <hyperlink ref="J37" location="visitor_message!A1" display="Click" xr:uid="{010D67F5-9F6B-49DF-9BFF-BC5A4D22C914}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3583,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -3592,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -3601,7 +3804,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -3632,58 +3835,58 @@
         <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>14</v>
@@ -3712,52 +3915,52 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N11" s="31">
         <v>31090</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="2">
         <v>2344422324</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W11" s="3" t="b">
         <v>1</v>
@@ -3766,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z11" s="8">
         <v>45884.326072766205</v>
@@ -3783,21 +3986,21 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
@@ -3806,12 +4009,12 @@
         <v>34</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
@@ -3820,165 +4023,165 @@
         <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
@@ -3989,15 +4192,15 @@
         <v>31</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
@@ -4006,7 +4209,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
@@ -4126,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -4135,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -4144,7 +4347,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -4178,7 +4381,7 @@
         <v>67</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>99</v>
@@ -4204,10 +4407,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -4216,13 +4419,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K11" s="2">
         <v>2022</v>
@@ -4248,7 +4451,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>72</v>
@@ -4256,14 +4459,14 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -4275,7 +4478,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -4287,7 +4490,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -4406,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -4415,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -4424,7 +4627,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -4458,10 +4661,10 @@
         <v>67</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>143</v>
@@ -4484,10 +4687,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -4496,13 +4699,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K11" s="2">
         <v>2022</v>
@@ -4528,7 +4731,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>72</v>
@@ -4536,26 +4739,26 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -4567,7 +4770,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -4687,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -4696,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -4705,7 +4908,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -4771,10 +4974,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -4786,19 +4989,19 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="N11" s="8">
         <v>45884.326072766205</v>
@@ -4821,10 +5024,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
@@ -4844,7 +5047,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>72</v>
@@ -4861,7 +5064,7 @@
         <v>82</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -4875,7 +5078,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -4889,7 +5092,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -4903,7 +5106,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -5020,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -5029,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -5038,7 +5241,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -5072,7 +5275,7 @@
         <v>67</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>14</v>
@@ -5092,10 +5295,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -5104,10 +5307,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J11" s="8">
         <v>45884.326072766205</v>
@@ -5130,7 +5333,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>72</v>
@@ -5143,16 +5346,16 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -5185,7 +5388,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>29</v>
@@ -5275,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -5284,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -5293,7 +5496,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -5327,31 +5530,31 @@
         <v>67</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>97</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>14</v>
@@ -5368,10 +5571,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -5380,34 +5583,34 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P11" s="2">
         <v>2</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R11" s="8">
         <v>45884.326072766205</v>
@@ -5427,7 +5630,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>72</v>
@@ -5435,7 +5638,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
@@ -5444,7 +5647,7 @@
         <v>82</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
@@ -5458,26 +5661,26 @@
         <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
@@ -5486,45 +5689,45 @@
         <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -5535,22 +5738,22 @@
         <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -5660,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5670,7 +5873,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5680,7 +5883,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5715,7 +5918,7 @@
         <v>96</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>97</v>
@@ -5727,7 +5930,7 @@
         <v>99</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>100</v>
@@ -5736,7 +5939,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>16</v>
@@ -5750,10 +5953,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -5768,19 +5971,19 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O11" s="8">
         <v>45884.326072766205</v>
@@ -5803,24 +6006,24 @@
         <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
@@ -5834,7 +6037,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -5848,7 +6051,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
@@ -5862,19 +6065,19 @@
         <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -5886,12 +6089,12 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>29</v>
@@ -6003,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -6012,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -6021,7 +6224,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -6064,10 +6267,10 @@
         <v>15</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -6075,10 +6278,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -6087,10 +6290,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J11" s="8">
         <v>45884.326072766205</v>
@@ -6113,7 +6316,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>72</v>
@@ -6132,10 +6335,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -6168,7 +6371,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>29</v>
@@ -6182,7 +6385,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
@@ -6664,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -6673,7 +6876,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -6682,7 +6885,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -6716,25 +6919,25 @@
         <v>67</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>14</v>
@@ -6754,10 +6957,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -6766,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2">
         <v>23423434</v>
@@ -6781,13 +6984,13 @@
         <v>134134134</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P11" s="8">
         <v>45884.326072766205</v>
@@ -6810,7 +7013,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>72</v>
@@ -6818,86 +7021,86 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -7010,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -7020,7 +7223,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -7030,7 +7233,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -7062,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -7082,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -7094,13 +7297,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7163,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -7173,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -7183,7 +7386,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -7221,7 +7424,7 @@
         <v>14</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>16</v>
@@ -7244,10 +7447,10 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I11" s="8">
         <v>45884.326072766205</v>
@@ -7273,13 +7476,13 @@
         <v>82</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I12" s="8">
         <v>45884.326072766205</v>
@@ -7296,7 +7499,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
@@ -7308,10 +7511,10 @@
         <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I13" s="8">
         <v>45884.326072766205</v>
@@ -7340,10 +7543,10 @@
         <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I14" s="8">
         <v>45884.326072766205</v>
@@ -7360,7 +7563,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>29</v>
@@ -7372,10 +7575,10 @@
         <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I15" s="8">
         <v>45884.326072766205</v>
@@ -7392,7 +7595,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>32</v>
@@ -7458,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -7468,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -7478,7 +7681,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -7530,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -7542,13 +7745,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -7607,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -7617,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -7627,7 +7830,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -7662,7 +7865,7 @@
         <v>122</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -7682,10 +7885,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -7693,32 +7896,32 @@
         <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -7793,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -7802,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -7811,7 +8014,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -7845,55 +8048,55 @@
         <v>122</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>14</v>
@@ -7922,31 +8125,31 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L11" s="2">
         <v>75010</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P11" s="2">
         <v>50</v>
@@ -7955,28 +8158,28 @@
         <v>1</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W11" s="10">
         <v>1</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z11" s="8">
         <v>45884.326072766205</v>
@@ -8002,103 +8205,103 @@
         <v>34</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -8109,106 +8312,106 @@
         <v>31</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
@@ -8321,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -8331,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -8341,7 +8544,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -8393,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -8405,13 +8608,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -8419,7 +8622,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8493,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -8502,7 +8705,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -8511,7 +8714,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -8542,66 +8745,66 @@
         <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>122</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -8616,13 +8819,13 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K11" s="2">
         <v>23949</v>
@@ -8631,31 +8834,31 @@
         <v>239492</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N11" s="2">
         <v>2342324</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S11" s="2">
         <v>2394928</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V11" s="2">
         <v>1</v>
@@ -8667,7 +8870,7 @@
         <v>45885.476907442127</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z11" s="24">
         <v>45885.483393229166</v>
@@ -8675,69 +8878,69 @@
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
@@ -8749,119 +8952,119 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>32</v>
@@ -8971,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -8980,7 +9183,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -8989,7 +9192,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -9026,15 +9229,15 @@
         <v>100</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -9052,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J11" s="8">
         <v>45885.476907442127</v>
@@ -9069,10 +9272,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
@@ -9084,12 +9287,12 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>32</v>
@@ -9172,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -9181,7 +9384,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -9190,7 +9393,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -9225,18 +9428,18 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -9271,29 +9474,29 @@
         <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>32</v>
@@ -9624,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -9633,7 +9836,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -9642,7 +9845,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -9677,18 +9880,18 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -9723,29 +9926,29 @@
         <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>32</v>
@@ -9828,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -9837,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -9846,7 +10049,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -9881,18 +10084,18 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -9927,29 +10130,29 @@
         <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>32</v>
@@ -10031,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -10041,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -10051,7 +10254,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -10103,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -10115,13 +10318,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -10129,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -10188,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -10198,7 +10401,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -10208,7 +10411,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -10260,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -10272,13 +10475,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -10286,7 +10489,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -10345,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -10355,7 +10558,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -10365,7 +10568,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -10417,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -10429,13 +10632,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -10443,7 +10646,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -10517,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -10526,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -10535,7 +10738,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -10566,46 +10769,46 @@
         <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
@@ -10622,149 +10825,149 @@
         <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="2">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -10775,27 +10978,27 @@
         <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>32</v>
@@ -10809,7 +11012,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>29</v>
@@ -10823,7 +11026,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>32</v>
@@ -10835,7 +11038,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>29</v>
@@ -10868,9 +11071,7 @@
   <sheetPr codeName="Sheet35"/>
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10903,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -10913,7 +11114,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -10923,7 +11124,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -10972,10 +11173,10 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -10987,21 +11188,21 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -11015,6 +11216,418 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{8129768E-4F5D-4B2D-B5E7-A88ACEC59445}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C8EDEC-5E40-456A-A496-73B8FB88B772}">
+  <sheetPr codeName="Sheet37"/>
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I11" s="2">
+        <v>23423423</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="K11" s="3">
+        <f ca="1">NOW()</f>
+        <v>45897.667470949076</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{D41914E7-4C9E-43A7-BC64-1233CBD7E208}"/>
+    <hyperlink ref="J11" r:id="rId1" xr:uid="{61C28008-36BB-4CC9-9872-D0B324C26A22}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24EE37F-8D67-4B63-B6CD-7455D3A60DCC}">
+  <sheetPr codeName="Sheet38"/>
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="K11" s="3">
+        <f ca="1">NOW()</f>
+        <v>45897.667470717592</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{BC799A7A-5B21-44C1-830A-9DA731D1ABD6}"/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{B3311003-8FC6-4BB7-87AB-D77D48880E20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pontagler.xlsx
+++ b/Pontagler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Saurabh\Project\pontagler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839F3B6-8673-480E-95A1-CF58EE461067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C0A7F1-2C72-4126-99F6-6722DE07329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8AB3C3F-122E-497A-9914-E8823559A3FF}"/>
   </bookViews>
@@ -33,24 +33,25 @@
     <sheet name="artist_request_media" sheetId="18" r:id="rId18"/>
     <sheet name="artist_instruments" sheetId="22" r:id="rId19"/>
     <sheet name="artist_requirement" sheetId="36" r:id="rId20"/>
-    <sheet name="sys_media_type" sheetId="19" r:id="rId21"/>
-    <sheet name="sys_performance_type" sheetId="20" r:id="rId22"/>
-    <sheet name="sys_request_type" sheetId="21" r:id="rId23"/>
-    <sheet name="sys_instruments" sheetId="23" r:id="rId24"/>
-    <sheet name="hosts" sheetId="24" r:id="rId25"/>
-    <sheet name="sys_host_types" sheetId="25" r:id="rId26"/>
-    <sheet name="locations" sheetId="26" r:id="rId27"/>
-    <sheet name="location_images" sheetId="27" r:id="rId28"/>
-    <sheet name="location_specs" sheetId="28" r:id="rId29"/>
-    <sheet name="location_types" sheetId="29" r:id="rId30"/>
-    <sheet name="location_amenity" sheetId="30" r:id="rId31"/>
-    <sheet name="sys_location_amenity" sheetId="31" r:id="rId32"/>
-    <sheet name="sys_location_specs" sheetId="32" r:id="rId33"/>
-    <sheet name="sys_location_types" sheetId="33" r:id="rId34"/>
-    <sheet name="user_profile" sheetId="34" r:id="rId35"/>
-    <sheet name="user_roles" sheetId="35" r:id="rId36"/>
-    <sheet name="visitor_newsletter" sheetId="37" r:id="rId37"/>
-    <sheet name="visitor_message" sheetId="38" r:id="rId38"/>
+    <sheet name="artist_timeoff" sheetId="39" r:id="rId21"/>
+    <sheet name="sys_media_type" sheetId="19" r:id="rId22"/>
+    <sheet name="sys_performance_type" sheetId="20" r:id="rId23"/>
+    <sheet name="sys_request_type" sheetId="21" r:id="rId24"/>
+    <sheet name="sys_instruments" sheetId="23" r:id="rId25"/>
+    <sheet name="hosts" sheetId="24" r:id="rId26"/>
+    <sheet name="sys_host_types" sheetId="25" r:id="rId27"/>
+    <sheet name="locations" sheetId="26" r:id="rId28"/>
+    <sheet name="location_images" sheetId="27" r:id="rId29"/>
+    <sheet name="location_specs" sheetId="28" r:id="rId30"/>
+    <sheet name="location_types" sheetId="29" r:id="rId31"/>
+    <sheet name="location_amenity" sheetId="30" r:id="rId32"/>
+    <sheet name="sys_location_amenity" sheetId="31" r:id="rId33"/>
+    <sheet name="sys_location_specs" sheetId="32" r:id="rId34"/>
+    <sheet name="sys_location_types" sheetId="33" r:id="rId35"/>
+    <sheet name="user_profile" sheetId="34" r:id="rId36"/>
+    <sheet name="user_roles" sheetId="35" r:id="rId37"/>
+    <sheet name="visitor_newsletter" sheetId="37" r:id="rId38"/>
+    <sheet name="visitor_message" sheetId="38" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="600">
   <si>
     <t>Table Name</t>
   </si>
@@ -1622,9 +1623,6 @@
     <t>Artist Guso Nb</t>
   </si>
   <si>
-    <t>Artist Conge Spectable</t>
-  </si>
-  <si>
     <t>Artist Security Numbe</t>
   </si>
   <si>
@@ -1846,6 +1844,39 @@
   </si>
   <si>
     <t>I want to donate</t>
+  </si>
+  <si>
+    <t>alergies</t>
+  </si>
+  <si>
+    <t>artist_timeoff</t>
+  </si>
+  <si>
+    <t>Artist time off</t>
+  </si>
+  <si>
+    <t>select *from artist_timeoff;</t>
+  </si>
+  <si>
+    <t>Table that store all artists timeoff</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2208,6 +2239,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2547,7 +2581,7 @@
   <dimension ref="B1:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2570,14 +2604,14 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="18"/>
       <c r="G2" s="34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -2585,7 +2619,7 @@
         <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D3" s="18"/>
     </row>
@@ -2597,7 +2631,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -2614,7 +2648,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>0</v>
@@ -2626,7 +2660,7 @@
         <v>55</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2637,21 +2671,21 @@
         <v>149</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="J7" s="44" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2660,10 +2694,10 @@
         <v>63</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>151</v>
@@ -2675,7 +2709,7 @@
         <v>150</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>151</v>
@@ -2686,10 +2720,10 @@
         <v>75</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>151</v>
@@ -2700,10 +2734,10 @@
         <v>86</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>151</v>
@@ -2714,16 +2748,16 @@
         <v>94</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>151</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -2734,10 +2768,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>151</v>
@@ -2750,7 +2784,7 @@
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -2761,21 +2795,21 @@
         <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="J13" s="44" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2787,7 +2821,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>151</v>
@@ -2796,10 +2830,10 @@
         <v>386</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>151</v>
@@ -2813,7 +2847,7 @@
         <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>151</v>
@@ -2822,10 +2856,10 @@
         <v>387</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>151</v>
@@ -2839,7 +2873,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>151</v>
@@ -2848,10 +2882,10 @@
         <v>388</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>151</v>
@@ -2862,10 +2896,10 @@
         <v>385</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>151</v>
@@ -2879,7 +2913,7 @@
         <v>150</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>151</v>
@@ -2887,7 +2921,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2899,7 +2933,7 @@
         <v>150</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>151</v>
@@ -2916,7 +2950,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>392</v>
@@ -2925,7 +2959,7 @@
         <v>150</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>151</v>
@@ -2939,7 +2973,7 @@
         <v>149</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>151</v>
@@ -2950,10 +2984,10 @@
         <v>156</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>151</v>
@@ -2964,16 +2998,16 @@
         <v>157</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>151</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -2984,10 +3018,10 @@
         <v>158</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>151</v>
@@ -3002,7 +3036,7 @@
         <v>55</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -3010,24 +3044,24 @@
         <v>159</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="I25" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="J25" s="44" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3036,10 +3070,10 @@
         <v>160</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>151</v>
@@ -3048,10 +3082,10 @@
         <v>476</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>151</v>
@@ -3062,10 +3096,10 @@
         <v>161</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>151</v>
@@ -3076,16 +3110,16 @@
         <v>318</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>151</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
@@ -3093,13 +3127,13 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>151</v>
@@ -3111,13 +3145,13 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>150</v>
+        <v>590</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>557</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>151</v>
@@ -3129,13 +3163,13 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>150</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>151</v>
@@ -3147,13 +3181,13 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>150</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>151</v>
@@ -3165,21 +3199,33 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>150</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="G34" s="38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
@@ -3196,18 +3242,18 @@
         <v>55</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G36" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H36" s="32" t="s">
         <v>149</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>151</v>
@@ -3215,13 +3261,13 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G37" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H37" s="32" t="s">
         <v>149</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J37" s="17" t="s">
         <v>151</v>
@@ -3255,12 +3301,12 @@
     <hyperlink ref="E25" location="artist_performance!A1" display="Click" xr:uid="{6AFF8692-99A9-453E-9FCD-D13D25CEE2ED}"/>
     <hyperlink ref="E26" location="artist_request!A1" display="Click" xr:uid="{3EAAB3AE-BCDE-4C55-95A2-1257C3F7DE43}"/>
     <hyperlink ref="E27" location="artist_request_media!A1" display="Click" xr:uid="{73DBB256-166A-425D-8237-2C9D0821C63F}"/>
-    <hyperlink ref="E30:E32" location="sys_event_types!A1" display="Click" xr:uid="{0AC03AC3-F35E-4059-A7CF-D0228221A284}"/>
-    <hyperlink ref="E30" location="sys_media_type!A1" display="Click" xr:uid="{6D79A262-1400-42AA-8CE6-D1852D3DE0F0}"/>
-    <hyperlink ref="E31" location="sys_performance_type!A1" display="Click" xr:uid="{BDA3EA88-9F8E-4401-BEBD-44FB89BC0220}"/>
-    <hyperlink ref="E32" location="sys_request_type!A1" display="Click" xr:uid="{FA010304-F4E5-413C-BEA2-7ADD1DF3FCE8}"/>
+    <hyperlink ref="E31:E33" location="sys_event_types!A1" display="Click" xr:uid="{0AC03AC3-F35E-4059-A7CF-D0228221A284}"/>
+    <hyperlink ref="E31" location="sys_media_type!A1" display="Click" xr:uid="{6D79A262-1400-42AA-8CE6-D1852D3DE0F0}"/>
+    <hyperlink ref="E32" location="sys_performance_type!A1" display="Click" xr:uid="{BDA3EA88-9F8E-4401-BEBD-44FB89BC0220}"/>
+    <hyperlink ref="E33" location="sys_request_type!A1" display="Click" xr:uid="{FA010304-F4E5-413C-BEA2-7ADD1DF3FCE8}"/>
     <hyperlink ref="E28" location="artist_instruments!A1" display="Click" xr:uid="{348722D5-457A-40BB-A668-8C05BC0DE6A0}"/>
-    <hyperlink ref="E33" location="sys_instruments!A1" display="Click" xr:uid="{DD52C262-B3D7-4C63-B7F0-45F76C55EA4B}"/>
+    <hyperlink ref="E34" location="sys_instruments!A1" display="Click" xr:uid="{DD52C262-B3D7-4C63-B7F0-45F76C55EA4B}"/>
     <hyperlink ref="J7" location="hosts!A1" display="Click" xr:uid="{2D531FB3-48C2-4806-AD6F-E64D039F323A}"/>
     <hyperlink ref="J8" location="sys_host_types!A1" display="Click" xr:uid="{4A4F0532-AD9F-4916-A896-5058B66141C5}"/>
     <hyperlink ref="J13" location="locations!A1" display="Click" xr:uid="{9CA39AF7-DB3E-4B0D-9165-7BE0B4017076}"/>
@@ -3277,6 +3323,7 @@
     <hyperlink ref="E29" location="artist_requirement!A1" display="Click" xr:uid="{A2E94BA9-61F1-4E72-A73C-2E83E34D8FF1}"/>
     <hyperlink ref="J36" location="visitor_newsletter!A1" display="Click" xr:uid="{F69507CF-4920-41D6-971B-365E4E1347C6}"/>
     <hyperlink ref="J37" location="visitor_message!A1" display="Click" xr:uid="{010D67F5-9F6B-49DF-9BFF-BC5A4D22C914}"/>
+    <hyperlink ref="E30" location="artist_timeoff!A1" display="Click" xr:uid="{AFAAA02E-DB03-4A20-B909-78CF23141396}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4071,7 +4118,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -4083,7 +4130,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -6826,7 +6873,7 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166E820D-9D48-4149-8587-7A13A26DE807}">
   <sheetPr codeName="Sheet36"/>
-  <dimension ref="B2:S23"/>
+  <dimension ref="B2:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -6867,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -6876,7 +6923,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -6885,7 +6932,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -6984,10 +7031,10 @@
         <v>134134134</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>333</v>
@@ -7045,7 +7092,7 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>30</v>
@@ -7057,7 +7104,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
@@ -7069,7 +7116,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>30</v>
@@ -7081,7 +7128,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>30</v>
@@ -7092,34 +7139,36 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>512</v>
+      <c r="B19" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>519</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>29</v>
@@ -7128,32 +7177,18 @@
         <v>85</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7174,6 +7209,278 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E9417B-64BE-4176-AF37-B8D17E391ADA}">
+  <sheetPr codeName="Sheet39"/>
+  <dimension ref="B2:N19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45700</v>
+      </c>
+      <c r="J11" s="8">
+        <v>45703</v>
+      </c>
+      <c r="K11" s="8">
+        <v>45884.326072766205</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="8">
+        <v>45884.326072766205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{7C8462BE-234B-4B40-AD6D-7DCE40179429}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E09A9B9-B14E-4079-96F3-4461F21F860C}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="B2:H12"/>
@@ -7322,7 +7629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFFFFB0-386A-45DC-BDF3-DA64EC328E3B}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="B2:L16"/>
@@ -7621,7 +7928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A2C35D-3C67-4C61-AEF0-A4357C77F247}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="B2:H12"/>
@@ -7770,7 +8077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D87684C-7396-46D6-B975-02395757888C}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="B2:I13"/>
@@ -7940,7 +8247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E5C72B-C2C7-4A84-8B11-A17A8BA2C729}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="B2:AC33"/>
@@ -8484,7 +8791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26E08E6-C09B-45E7-884F-9C988E2B0C44}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="B2:H13"/>
@@ -8641,7 +8948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C93DBA-DCCC-4002-8DF8-A55DE1A0173C}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="B2:Z30"/>
@@ -9132,7 +9439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2858450C-701E-4387-984E-765E29944220}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="B2:K15"/>
@@ -9329,210 +9636,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{361EEFCE-B1A7-4187-8E07-1E4AD77F8AC1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11072198-A8E0-4201-8824-2910DACD8EC1}">
-  <sheetPr codeName="Sheet28"/>
-  <dimension ref="B2:K15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>45885.476907442127</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{D2C68EE4-56A3-4A9E-B088-86901B80C297}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9787,6 +9890,210 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11072198-A8E0-4201-8824-2910DACD8EC1}">
+  <sheetPr codeName="Sheet28"/>
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>45885.476907442127</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{D2C68EE4-56A3-4A9E-B088-86901B80C297}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC1E40B-FC8A-43C4-9A77-292CFAF303A8}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="B2:K15"/>
@@ -9990,7 +10297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67006C9-FDD7-4EAD-84AB-83CD5B4EC842}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="B2:K15"/>
@@ -10194,7 +10501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAED8C5-DB4E-4E73-B2C6-5B3660F963CF}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="B2:H13"/>
@@ -10351,7 +10658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B7FE61-7EB1-45EA-A6D2-3BF4A7C3D5ED}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="B2:H13"/>
@@ -10508,7 +10815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A65C13-004B-47A9-AD07-3E00C6B9B779}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="B2:H13"/>
@@ -10665,7 +10972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7116717C-E5B0-42B9-9C5D-8DCCC1ADB310}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="B2:U25"/>
@@ -11066,7 +11373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DD18AC-0069-4029-938D-C906CFF36951}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="B2:H13"/>
@@ -11221,7 +11528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C8EDEC-5E40-456A-A496-73B8FB88B772}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="B2:K15"/>
@@ -11265,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -11274,7 +11581,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -11283,7 +11590,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -11323,7 +11630,7 @@
         <v>170</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -11334,7 +11641,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -11343,17 +11650,17 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I11" s="2">
         <v>23423423</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K11" s="3">
         <f ca="1">NOW()</f>
-        <v>45897.667470949076</v>
+        <v>45897.696168055554</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -11367,7 +11674,7 @@
         <v>482</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
@@ -11381,7 +11688,7 @@
         <v>483</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
@@ -11398,7 +11705,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>32</v>
@@ -11427,7 +11734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24EE37F-8D67-4B63-B6CD-7455D3A60DCC}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="B2:K15"/>
@@ -11471,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -11480,7 +11787,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D6" s="21"/>
     </row>
@@ -11489,7 +11796,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -11526,10 +11833,10 @@
         <v>170</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -11540,7 +11847,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
@@ -11549,17 +11856,17 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>581</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K11" s="3">
         <f ca="1">NOW()</f>
-        <v>45897.667470717592</v>
+        <v>45897.696168055554</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -11573,7 +11880,7 @@
         <v>482</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
@@ -11587,24 +11894,24 @@
         <v>483</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>32</v>

--- a/Pontagler.xlsx
+++ b/Pontagler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Saurabh\Project\pontagler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C0A7F1-2C72-4126-99F6-6722DE07329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258EEB76-C1D7-4CA9-B043-18673F970EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8AB3C3F-122E-497A-9914-E8823559A3FF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A8AB3C3F-122E-497A-9914-E8823559A3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -2164,7 +2164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2194,36 +2194,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2236,11 +2230,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2580,8 +2577,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,7 +2592,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -2603,19 +2600,19 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>557</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="27" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="31" t="s">
         <v>150</v>
       </c>
       <c r="C3" t="s">
@@ -2624,18 +2621,18 @@
       <c r="D3" s="18"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="G5" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
@@ -2667,7 +2664,7 @@
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="30" t="s">
         <v>149</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -2679,13 +2676,13 @@
       <c r="G7" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="30" t="s">
         <v>149</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="33" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2693,7 +2690,7 @@
       <c r="B8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2705,7 +2702,7 @@
       <c r="G8" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="32" t="s">
         <v>150</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -2719,7 +2716,7 @@
       <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2733,7 +2730,7 @@
       <c r="B10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -2747,7 +2744,7 @@
       <c r="B11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -2756,18 +2753,18 @@
       <c r="E11" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2791,7 +2788,7 @@
       <c r="B13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2803,13 +2800,13 @@
       <c r="G13" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="30" t="s">
         <v>149</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="33" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2817,7 +2814,7 @@
       <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -2829,7 +2826,7 @@
       <c r="G14" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="26" t="s">
         <v>557</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -2843,7 +2840,7 @@
       <c r="B15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2855,7 +2852,7 @@
       <c r="G15" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="26" t="s">
         <v>557</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -2869,7 +2866,7 @@
       <c r="B16" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2881,7 +2878,7 @@
       <c r="G16" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="26" t="s">
         <v>557</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2895,7 +2892,7 @@
       <c r="G17" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="26" t="s">
         <v>557</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -2909,7 +2906,7 @@
       <c r="G18" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="32" t="s">
         <v>150</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -2920,16 +2917,16 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="G19" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="32" t="s">
         <v>150</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -2955,7 +2952,7 @@
       <c r="G20" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="32" t="s">
         <v>150</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -2969,7 +2966,7 @@
       <c r="B21" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="30" t="s">
         <v>149</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -2983,7 +2980,7 @@
       <c r="B22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2997,7 +2994,7 @@
       <c r="B23" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -3006,18 +3003,18 @@
       <c r="E23" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -3043,7 +3040,7 @@
       <c r="B25" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3055,13 +3052,13 @@
       <c r="G25" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="30" t="s">
         <v>149</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="33" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3069,7 +3066,7 @@
       <c r="B26" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -3081,7 +3078,7 @@
       <c r="G26" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="26" t="s">
         <v>557</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -3095,7 +3092,7 @@
       <c r="B27" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3109,7 +3106,7 @@
       <c r="B28" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -3118,18 +3115,18 @@
       <c r="E28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -3138,16 +3135,16 @@
       <c r="E29" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="26" t="s">
         <v>557</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -3156,16 +3153,16 @@
       <c r="E30" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3174,16 +3171,16 @@
       <c r="E31" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -3192,16 +3189,16 @@
       <c r="E32" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -3215,7 +3212,7 @@
       <c r="B34" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -3224,12 +3221,12 @@
       <c r="E34" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G35" s="16" t="s">
@@ -3249,7 +3246,7 @@
       <c r="G36" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I36" s="6" t="s">
@@ -3263,7 +3260,7 @@
       <c r="G37" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I37" s="6" t="s">
@@ -3335,7 +3332,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I11" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3359,51 +3356,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -3517,7 +3514,7 @@
   <dimension ref="B2:N18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3545,51 +3542,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -3823,47 +3820,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -3979,13 +3976,13 @@
       <c r="L11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="8">
         <v>31090</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="2" t="s">
         <v>367</v>
       </c>
       <c r="P11" s="14" t="s">
@@ -4315,12 +4312,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{F60FA18A-7C2B-46D4-86FA-D0A858274D4B}"/>
@@ -4366,47 +4363,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -4596,12 +4593,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{550CF908-A680-4D1D-9989-54F9D648171C}"/>
@@ -4646,47 +4643,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -4876,12 +4873,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{1E73A1EF-358D-4614-85EF-4C699566459D}"/>
@@ -4927,47 +4924,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -5076,15 +5073,11 @@
       <c r="E12" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="27"/>
+      <c r="G12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
@@ -5212,12 +5205,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{CE84C75A-8660-4A45-A156-A4F4DECED695}"/>
@@ -5260,47 +5253,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -5385,11 +5378,9 @@
       <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="27"/>
+      <c r="G12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
@@ -5461,12 +5452,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{F41B8DA3-FC01-44FE-BFAD-C475519949FB}"/>
@@ -5515,47 +5506,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -5845,12 +5836,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{8CAA30CB-B272-4A40-B02E-620B8A0629B0}"/>
@@ -5899,51 +5890,51 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -6243,47 +6234,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -6368,11 +6359,9 @@
       <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="27"/>
+      <c r="G12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
@@ -6444,12 +6433,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{DB769183-1FF4-4757-BA7E-8ACDA4B9F7FC}"/>
@@ -6500,47 +6489,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -6904,47 +6893,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -7194,12 +7183,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{F0FD6181-BBF3-4A8E-9733-14AB6507369E}"/>
@@ -7242,47 +7231,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>590</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>592</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>593</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -7466,12 +7455,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{7C8462BE-234B-4B40-AD6D-7DCE40179429}"/>
@@ -7509,51 +7498,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -7615,12 +7604,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{9710731A-E311-4E37-B5E9-8C4AFBC6831B}"/>
@@ -7662,51 +7651,51 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -7914,12 +7903,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{A16153BF-A6E9-4F0F-8259-5A81B3BF18F3}"/>
@@ -7957,51 +7946,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -8063,12 +8052,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{B28DAA15-7083-438C-BD6E-42940BEF73E5}"/>
@@ -8106,51 +8095,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -8233,12 +8222,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{ACDD23B2-85AA-4D16-9C13-64F7C25D8FC9}"/>
@@ -8293,47 +8282,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -8449,10 +8438,10 @@
       <c r="L11" s="2">
         <v>75010</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="2" t="s">
         <v>369</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -8777,12 +8766,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{597EB6A3-E7DA-47DE-8F71-B650E20764AF}"/>
@@ -8820,51 +8809,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -8934,12 +8923,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{AC8711E9-F3D1-4178-8B49-AF44D5BBDE87}"/>
@@ -8993,47 +8982,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -9140,7 +9129,7 @@
       <c r="L11" s="2">
         <v>239492</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="2" t="s">
         <v>432</v>
       </c>
       <c r="N11" s="2">
@@ -9173,13 +9162,13 @@
       <c r="W11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="24">
+      <c r="X11" s="19">
         <v>45885.476907442127</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="19">
         <v>45885.483393229166</v>
       </c>
     </row>
@@ -9425,12 +9414,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{5A82BB6D-77D5-4D1D-99DE-7635A6549550}"/>
@@ -9471,47 +9460,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -9627,12 +9616,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{361EEFCE-B1A7-4187-8E07-1E4AD77F8AC1}"/>
@@ -9647,7 +9636,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G10" sqref="G10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9675,51 +9664,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -9920,48 +9909,48 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -10079,12 +10068,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{D2C68EE4-56A3-4A9E-B088-86901B80C297}"/>
@@ -10124,48 +10113,48 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -10283,12 +10272,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{4AAD081D-F5B3-4248-9F37-AFC16F425272}"/>
@@ -10328,48 +10317,48 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="30"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -10487,12 +10476,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{2A8665C1-9EE0-4A01-A24E-DDB78FE0352B}"/>
@@ -10530,51 +10519,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -10644,12 +10633,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{A63DB2C9-8132-4A35-8B4C-FE5CAE70A1E9}"/>
@@ -10687,51 +10676,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -10801,12 +10790,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{C6127DE4-08B5-419C-869A-039B1333637B}"/>
@@ -10844,51 +10833,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -10958,12 +10947,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{46C756A5-38A9-4BDB-859B-E30F21FF50E0}"/>
@@ -11017,47 +11006,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -11359,12 +11348,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{930D1C15-215C-4324-8B3C-7C0586C8FD87}"/>
@@ -11400,51 +11389,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -11514,12 +11503,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{8129768E-4F5D-4B2D-B5E7-A88ACEC59445}"/>
@@ -11562,47 +11551,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -11660,7 +11649,7 @@
       </c>
       <c r="K11" s="3">
         <f ca="1">NOW()</f>
-        <v>45897.696168055554</v>
+        <v>45925.729269097224</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -11719,12 +11708,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{D41914E7-4C9E-43A7-BC64-1233CBD7E208}"/>
@@ -11768,47 +11757,47 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>583</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>584</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -11866,7 +11855,7 @@
       </c>
       <c r="K11" s="3">
         <f ca="1">NOW()</f>
-        <v>45897.696168055554</v>
+        <v>45925.729269097224</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -11925,12 +11914,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Home!A1" display="Go To Home" xr:uid="{BC799A7A-5B21-44C1-830A-9DA731D1ABD6}"/>
@@ -11945,8 +11934,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11974,51 +11963,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -12242,51 +12231,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -12482,7 +12471,7 @@
   <dimension ref="B2:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD21"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12510,51 +12499,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -12839,51 +12828,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -13098,9 +13087,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13122,51 +13109,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
@@ -13250,7 +13237,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13273,51 +13260,51 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="39"/>
+      <c r="G9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
